--- a/BC4400F22/Lecture2/excel_intro.xlsx
+++ b/BC4400F22/Lecture2/excel_intro.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuny547-my.sharepoint.com/personal/dailoae_gradcenter_cuny_edu/Documents/Documents/Work/Teaching/_BK_College/_Fall 2022/Lecture2 - Stats Start/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400F22/Lecture2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{DADE5FCE-B8BD-4D40-8845-F133EDD696AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78402956-04BA-421F-8BFE-742C456AA43D}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{DADE5FCE-B8BD-4D40-8845-F133EDD696AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A69DA72-2A31-49CF-BA32-402D76E4958C}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -877,7 +877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C38EBE-0B83-4B9A-B0E9-788AA245BC09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F757ABC-6ABD-4541-8C3E-BE249AB0DA66}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
